--- a/hardware/Raspberry Pi temperature management hat BOM.xlsx
+++ b/hardware/Raspberry Pi temperature management hat BOM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Item</t>
   </si>
@@ -43,10 +43,10 @@
     <t>C1, C2</t>
   </si>
   <si>
-    <t>C0603C106M8PAC7411</t>
-  </si>
-  <si>
-    <t>https://www.mouser.pl/ProductDetail/KEMET/C0603C106M8PAC7411?qs=u4fy%2FsgLU9O92fkz0XEZeg%3D%3D</t>
+    <t>CL10A106MP8NNND</t>
+  </si>
+  <si>
+    <t>https://www.mouser.pl/ProductDetail/Samsung-Electro-Mechanics/CL10A106MP8NNND?qs=sGAEpiMZZMvsSlwiRhF8qtsGU%2FCnaNeQOykQYB9KHGQ6qGDXYAVN1w%3D%3D</t>
   </si>
   <si>
     <t>Capacitor 0.1uF</t>
@@ -61,22 +61,10 @@
     <t>https://www.mouser.pl/ProductDetail/KEMET/C0603C104K8RACTU?qs=7q2aiX3GdlhV1RoC2Ruw8Q%3D%3D</t>
   </si>
   <si>
-    <t>Diode 1N4148</t>
-  </si>
-  <si>
-    <t>D1, D2, D3</t>
-  </si>
-  <si>
-    <t>1N4148WT</t>
-  </si>
-  <si>
-    <t>https://www.mouser.pl/ProductDetail/onsemi-Fairchild/1N4148WT?qs=2%2FYqgE%252BHg%252BJTXBWnIBbu3Q%3D%3D</t>
-  </si>
-  <si>
     <t>Red LED</t>
   </si>
   <si>
-    <t>D4</t>
+    <t>D1, D2</t>
   </si>
   <si>
     <t>LTST-C191KRKT</t>
@@ -85,16 +73,16 @@
     <t>https://www.mouser.pl/ProductDetail/Lite-On/LTST-C191KRKT?qs=sGAEpiMZZMuCm2JlHBGefiI6XTgwWTjBqIuscz6Upzw%3D</t>
   </si>
   <si>
-    <t>Diode S1MFL</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>S1MFL</t>
-  </si>
-  <si>
-    <t>https://www.mouser.pl/ProductDetail/onsemi-Fairchild/S1MFL?qs=tqW9UTzndZyYhJynRbS1IA%3D%3D</t>
+    <t>Diode LL4148</t>
+  </si>
+  <si>
+    <t>D3, D4</t>
+  </si>
+  <si>
+    <t>LL4148</t>
+  </si>
+  <si>
+    <t>https://www.mouser.pl/ProductDetail/onsemi-Fairchild/LL4148?qs=sGAEpiMZZMtbRapU8LlZD9kBCaIQZVuxfJdpmPGhl1k%3D</t>
   </si>
   <si>
     <t>Fuse 50mA</t>
@@ -103,16 +91,25 @@
     <t>F1</t>
   </si>
   <si>
-    <t>F0402G0R05FNTR</t>
-  </si>
-  <si>
-    <t>https://www.mouser.pl/ProductDetail/Kyocera-AVX/F0402G0R05FNTR?qs=WRzgYYgs9gDKm1fOd5z9bA%3D%3D</t>
+    <t>F0603G0R05FNTR</t>
+  </si>
+  <si>
+    <t>https://www.mouser.pl/ProductDetail/Kyocera-AVX/F0603G0R05FNTR?qs=JtEK8acvKOPEA8BapUZ1nQ%3D%3D</t>
+  </si>
+  <si>
+    <t>Pin Socket 2x20 2.54mm</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>https://www.mouser.pl/ProductDetail/Wurth-Elektronik/61304021821?qs=bZr6mbWTK5mzEvTTGhcEyQ%3D%3D</t>
   </si>
   <si>
     <t>Screw Terminal x3 2.54mm</t>
   </si>
   <si>
-    <t>J1</t>
+    <t>J2</t>
   </si>
   <si>
     <t>https://www.mouser.pl/ProductDetail/CUI-Devices/TB002-500-03BE?qs=vLWxofP3U2xKqUO2wcZ40g%3D%3D</t>
@@ -121,25 +118,16 @@
     <t>Screw Terminal x2 2.54mm</t>
   </si>
   <si>
-    <t>J2</t>
+    <t>J3, J4</t>
   </si>
   <si>
     <t>https://www.mouser.pl/ProductDetail/CUI-Devices/TB001-500-02BE?qs=vLWxofP3U2zBBnHgU5u3DA%3D%3D</t>
   </si>
   <si>
-    <t>Pin Socket 2x20 2.54mm</t>
-  </si>
-  <si>
-    <t>J3</t>
-  </si>
-  <si>
-    <t>https://www.mouser.pl/ProductDetail/Wurth-Elektronik/61304021821?qs=bZr6mbWTK5mzEvTTGhcEyQ%3D%3D</t>
-  </si>
-  <si>
     <t>Transistor NPN S8050</t>
   </si>
   <si>
-    <t>Q1</t>
+    <t>Q1, Q2</t>
   </si>
   <si>
     <t>MMSS8050-L-TP</t>
@@ -148,22 +136,10 @@
     <t>https://www.mouser.pl/ProductDetail/Micro-Commercial-Components-MCC/MMSS8050-L-TP?qs=FaVZESsvgnebflbaqJWJVQ%3D%3D</t>
   </si>
   <si>
-    <t>Resistor 10kΩ</t>
-  </si>
-  <si>
-    <t>R1, R2, R3</t>
-  </si>
-  <si>
-    <t>ERJ-3GEYJ103V</t>
-  </si>
-  <si>
-    <t>https://www.mouser.pl/ProductDetail/Panasonic/ERJ-3GEYJ103V?qs=sGAEpiMZZMvdGkrng054t8ugkoYZivkgGP5%252B%252BcZI0Z0%3D</t>
-  </si>
-  <si>
     <t>Resistor 430Ω, 0.1%</t>
   </si>
   <si>
-    <t>R4</t>
+    <t>R1</t>
   </si>
   <si>
     <t>ERA-3AEB431V</t>
@@ -175,7 +151,7 @@
     <t>Resistor 180Ω</t>
   </si>
   <si>
-    <t>R5</t>
+    <t>R2, R3</t>
   </si>
   <si>
     <t>ERJ-3GEYJ181V</t>
@@ -187,7 +163,7 @@
     <t>Resistor 510Ω</t>
   </si>
   <si>
-    <t>R6</t>
+    <t>R4, R5</t>
   </si>
   <si>
     <t>ERJ-3GEYJ511V</t>
@@ -223,7 +199,7 @@
     <t>Optocoupler FOD817</t>
   </si>
   <si>
-    <t>U3</t>
+    <t>U3, U4</t>
   </si>
   <si>
     <t>FOD817B3SD</t>
@@ -235,7 +211,7 @@
     <t>Suma:</t>
   </si>
   <si>
-    <t>Suma bez MAX:</t>
+    <t>Suma bez MAX i FOD817:</t>
   </si>
 </sst>
 </file>
@@ -243,13 +219,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="#,##0.00\ [$zł-415]"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -263,6 +239,42 @@
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -274,22 +286,53 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="4"/>
       <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="4"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -309,28 +352,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -355,36 +376,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,9 +390,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,29 +428,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Arial"/>
@@ -465,18 +456,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -484,168 +637,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,9 +676,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -707,21 +733,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -736,175 +747,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -912,31 +903,43 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1204,10 +1207,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6272727272727" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="6"/>
@@ -1216,7 +1219,7 @@
     <col min="2" max="2" width="26.2545454545455" customWidth="1"/>
     <col min="3" max="3" width="5.12727272727273" customWidth="1"/>
     <col min="4" max="4" width="10.8818181818182" customWidth="1"/>
-    <col min="5" max="5" width="21.2545454545455" customWidth="1"/>
+    <col min="5" max="5" width="24.3636363636364" customWidth="1"/>
     <col min="6" max="6" width="9.38181818181818" customWidth="1"/>
     <col min="7" max="7" width="139.5" customWidth="1"/>
   </cols>
@@ -1261,8 +1264,8 @@
         <v>9</v>
       </c>
       <c r="F2" s="2">
-        <f>2*2.17</f>
-        <v>4.34</v>
+        <f>0.842*C2</f>
+        <v>1.684</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>10</v>
@@ -1285,10 +1288,10 @@
         <v>13</v>
       </c>
       <c r="F3" s="2">
-        <f>3*0.53</f>
+        <f>0.53*C3</f>
         <v>1.59</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1300,19 +1303,19 @@
         <v>15</v>
       </c>
       <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="2">
-        <f>3*1.02</f>
-        <v>3.06</v>
-      </c>
-      <c r="G4" s="3" t="s">
+        <f>1.15*C4</f>
+        <v>2.3</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1324,18 +1327,19 @@
         <v>19</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="2">
-        <v>1.15</v>
-      </c>
-      <c r="G5" s="3" t="s">
+        <f>0.577*C5</f>
+        <v>1.154</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1356,9 +1360,9 @@
         <v>25</v>
       </c>
       <c r="F6" s="2">
-        <v>2.12</v>
-      </c>
-      <c r="G6" s="3" t="s">
+        <v>3.53</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1375,88 +1379,90 @@
       <c r="D7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="1">
+        <v>61304021821</v>
+      </c>
+      <c r="F7" s="2">
+        <v>8.46</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="F7" s="2">
-        <v>3.14</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="1">
-        <v>8</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>31</v>
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="5">
+        <v>31</v>
+      </c>
+      <c r="E8" s="9">
         <v>1725669</v>
       </c>
       <c r="F8" s="2">
         <v>3.09</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>33</v>
+      <c r="G8" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:7">
       <c r="A9" s="1">
-        <v>9</v>
-      </c>
-      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E9" s="1">
         <v>1725656</v>
       </c>
       <c r="F9" s="2">
-        <v>2.87</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>36</v>
+        <f>2.87*C9</f>
+        <v>5.74</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:7">
       <c r="A10" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="1">
-        <v>61304021821</v>
-      </c>
       <c r="F10" s="2">
-        <v>8.46</v>
-      </c>
-      <c r="G10" s="3" t="s">
+        <f>0.93*C10</f>
+        <v>1.86</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:7">
       <c r="A11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>40</v>
@@ -1464,69 +1470,70 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="5" t="s">
         <v>41</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F11" s="2">
-        <v>0.93</v>
-      </c>
-      <c r="G11" s="3" t="s">
+        <v>1.55</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="1">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F12" s="2">
-        <f>3*0.44</f>
-        <v>1.32</v>
-      </c>
-      <c r="G12" s="3" t="s">
+        <f>0.44*C12</f>
+        <v>0.88</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:7">
       <c r="A13" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F13" s="2">
-        <v>1.55</v>
-      </c>
-      <c r="G13" s="3" t="s">
+        <f>0.44*C13</f>
+        <v>0.88</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:7">
       <c r="A14" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>52</v>
@@ -1541,144 +1548,98 @@
         <v>54</v>
       </c>
       <c r="F14" s="2">
-        <v>0.44</v>
-      </c>
-      <c r="G14" s="3" t="s">
+        <v>6.65</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:7">
       <c r="A15" s="1">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="12">
         <v>1</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="2">
-        <v>0.44</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="F15" s="13">
+        <f>33.15*C15</f>
+        <v>33.15</v>
+      </c>
+      <c r="G15" s="14" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:7">
       <c r="A16" s="1">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="C16" s="12">
+        <v>2</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="2">
-        <v>6.65</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="F16" s="13">
+        <f>2.56*C16</f>
+        <v>5.12</v>
+      </c>
+      <c r="G16" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:7">
-      <c r="A17" s="8">
-        <v>17</v>
-      </c>
-      <c r="B17" s="9" t="s">
+    <row r="18" customHeight="1" spans="5:6">
+      <c r="E18" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="8">
-        <v>1</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="F18" s="16">
+        <f>SUM(F2:F16)</f>
+        <v>77.638</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="5:6">
+      <c r="E19" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="10">
-        <v>33.15</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:7">
-      <c r="A18" s="1">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="2">
-        <v>2.56</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="5:6">
-      <c r="E20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="12">
-        <f>SUM(F2:F18)</f>
-        <v>76.86</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="5:6">
-      <c r="E21" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="12">
-        <f>F20-F17</f>
-        <v>43.71</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="7:7">
-      <c r="G22" s="13"/>
+      <c r="F19" s="16">
+        <f>SUM(F2:F14)</f>
+        <v>39.368</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="7:7">
+      <c r="G20" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="https://www.mouser.pl/ProductDetail/KEMET/C0603C106M8PAC7411?qs=u4fy%2FsgLU9O92fkz0XEZeg%3D%3D"/>
-    <hyperlink ref="G3" r:id="rId2" display="https://www.mouser.pl/ProductDetail/KEMET/C0603C104K8RACTU?qs=7q2aiX3GdlhV1RoC2Ruw8Q%3D%3D"/>
-    <hyperlink ref="G4" r:id="rId3" display="https://www.mouser.pl/ProductDetail/onsemi-Fairchild/1N4148WT?qs=2%2FYqgE%252BHg%252BJTXBWnIBbu3Q%3D%3D"/>
-    <hyperlink ref="G5" r:id="rId4" display="https://www.mouser.pl/ProductDetail/Lite-On/LTST-C191KRKT?qs=sGAEpiMZZMuCm2JlHBGefiI6XTgwWTjBqIuscz6Upzw%3D"/>
-    <hyperlink ref="G6" r:id="rId5" display="https://www.mouser.pl/ProductDetail/onsemi-Fairchild/S1MFL?qs=tqW9UTzndZyYhJynRbS1IA%3D%3D"/>
-    <hyperlink ref="G7" r:id="rId6" display="https://www.mouser.pl/ProductDetail/Kyocera-AVX/F0402G0R05FNTR?qs=WRzgYYgs9gDKm1fOd5z9bA%3D%3D"/>
-    <hyperlink ref="G8" r:id="rId7" display="https://www.mouser.pl/ProductDetail/CUI-Devices/TB002-500-03BE?qs=vLWxofP3U2xKqUO2wcZ40g%3D%3D" tooltip="https://www.mouser.pl/ProductDetail/CUI-Devices/TB002-500-03BE?qs=vLWxofP3U2xKqUO2wcZ40g%3D%3D"/>
-    <hyperlink ref="G9" r:id="rId8" display="https://www.mouser.pl/ProductDetail/CUI-Devices/TB001-500-02BE?qs=vLWxofP3U2zBBnHgU5u3DA%3D%3D" tooltip="https://www.mouser.pl/ProductDetail/CUI-Devices/TB001-500-02BE?qs=vLWxofP3U2zBBnHgU5u3DA%3D%3D"/>
-    <hyperlink ref="G10" r:id="rId9" display="https://www.mouser.pl/ProductDetail/Wurth-Elektronik/61304021821?qs=bZr6mbWTK5mzEvTTGhcEyQ%3D%3D"/>
-    <hyperlink ref="G11" r:id="rId10" display="https://www.mouser.pl/ProductDetail/Micro-Commercial-Components-MCC/MMSS8050-L-TP?qs=FaVZESsvgnebflbaqJWJVQ%3D%3D"/>
-    <hyperlink ref="G12" r:id="rId11" display="https://www.mouser.pl/ProductDetail/Panasonic/ERJ-3GEYJ103V?qs=sGAEpiMZZMvdGkrng054t8ugkoYZivkgGP5%252B%252BcZI0Z0%3D"/>
-    <hyperlink ref="G13" r:id="rId12" display="https://www.mouser.pl/ProductDetail/Panasonic/ERA-3AEB431V?qs=sGAEpiMZZMvdGkrng054t59%2FMXCyyixeJcU9Z9YV6ng%3D"/>
-    <hyperlink ref="G14" r:id="rId13" display="https://www.mouser.pl/ProductDetail/Panasonic/ERJ-3GEYJ181V?qs=sGAEpiMZZMvdGkrng054t8AJgcdMkx7xzUQtm7qOYxE%3D"/>
-    <hyperlink ref="G15" r:id="rId14" display="https://www.mouser.pl/ProductDetail/Panasonic/ERJ-3GEYJ511V?qs=sGAEpiMZZMvdGkrng054t8ugkoYZivkgIzDDCM6DO7s%3D"/>
-    <hyperlink ref="G16" r:id="rId15" display="https://www.mouser.pl/ProductDetail/Microchip-Technology/MIC5231-33YM5-TR?qs=U6T8BxXiZAV4ViZFSz%252BC0A%3D%3D&amp;gclid=CjwKCAjw-8qVBhANEiwAfjXLrmOsnn6y-DrG23r4fYzvO3xyZCZTm1_yUDjyj6c295oS1x0ENWnCBxoCpgkQAvD_BwE"/>
-    <hyperlink ref="G17" r:id="rId16" display="https://www.mouser.pl/ProductDetail/Maxim-Integrated/MAX31865ATP%2bT?qs=mIV%2FTjyUFhl0J5LgcLJnSg%3D%3D"/>
-    <hyperlink ref="G18" r:id="rId17" display="https://www.mouser.pl/ProductDetail/onsemi-Fairchild/FOD817B3SD?qs=32VJUWvZ7XaPAttVzV2Zlg%3D%3D"/>
+    <hyperlink ref="G3" r:id="rId1" display="https://www.mouser.pl/ProductDetail/KEMET/C0603C104K8RACTU?qs=7q2aiX3GdlhV1RoC2Ruw8Q%3D%3D"/>
+    <hyperlink ref="G4" r:id="rId2" display="https://www.mouser.pl/ProductDetail/Lite-On/LTST-C191KRKT?qs=sGAEpiMZZMuCm2JlHBGefiI6XTgwWTjBqIuscz6Upzw%3D"/>
+    <hyperlink ref="G6" r:id="rId3" display="https://www.mouser.pl/ProductDetail/Kyocera-AVX/F0603G0R05FNTR?qs=JtEK8acvKOPEA8BapUZ1nQ%3D%3D" tooltip="https://www.mouser.pl/ProductDetail/Kyocera-AVX/F0603G0R05FNTR?qs=JtEK8acvKOPEA8BapUZ1nQ%3D%3D"/>
+    <hyperlink ref="G8" r:id="rId4" display="https://www.mouser.pl/ProductDetail/CUI-Devices/TB002-500-03BE?qs=vLWxofP3U2xKqUO2wcZ40g%3D%3D" tooltip="https://www.mouser.pl/ProductDetail/CUI-Devices/TB002-500-03BE?qs=vLWxofP3U2xKqUO2wcZ40g%3D%3D"/>
+    <hyperlink ref="G9" r:id="rId5" display="https://www.mouser.pl/ProductDetail/CUI-Devices/TB001-500-02BE?qs=vLWxofP3U2zBBnHgU5u3DA%3D%3D" tooltip="https://www.mouser.pl/ProductDetail/CUI-Devices/TB001-500-02BE?qs=vLWxofP3U2zBBnHgU5u3DA%3D%3D"/>
+    <hyperlink ref="G7" r:id="rId6" display="https://www.mouser.pl/ProductDetail/Wurth-Elektronik/61304021821?qs=bZr6mbWTK5mzEvTTGhcEyQ%3D%3D"/>
+    <hyperlink ref="G10" r:id="rId7" display="https://www.mouser.pl/ProductDetail/Micro-Commercial-Components-MCC/MMSS8050-L-TP?qs=FaVZESsvgnebflbaqJWJVQ%3D%3D"/>
+    <hyperlink ref="G11" r:id="rId8" display="https://www.mouser.pl/ProductDetail/Panasonic/ERA-3AEB431V?qs=sGAEpiMZZMvdGkrng054t59%2FMXCyyixeJcU9Z9YV6ng%3D"/>
+    <hyperlink ref="G12" r:id="rId9" display="https://www.mouser.pl/ProductDetail/Panasonic/ERJ-3GEYJ181V?qs=sGAEpiMZZMvdGkrng054t8AJgcdMkx7xzUQtm7qOYxE%3D"/>
+    <hyperlink ref="G13" r:id="rId10" display="https://www.mouser.pl/ProductDetail/Panasonic/ERJ-3GEYJ511V?qs=sGAEpiMZZMvdGkrng054t8ugkoYZivkgIzDDCM6DO7s%3D"/>
+    <hyperlink ref="G14" r:id="rId11" display="https://www.mouser.pl/ProductDetail/Microchip-Technology/MIC5231-33YM5-TR?qs=U6T8BxXiZAV4ViZFSz%252BC0A%3D%3D&amp;gclid=CjwKCAjw-8qVBhANEiwAfjXLrmOsnn6y-DrG23r4fYzvO3xyZCZTm1_yUDjyj6c295oS1x0ENWnCBxoCpgkQAvD_BwE"/>
+    <hyperlink ref="G15" r:id="rId12" display="https://www.mouser.pl/ProductDetail/Maxim-Integrated/MAX31865ATP%2bT?qs=mIV%2FTjyUFhl0J5LgcLJnSg%3D%3D"/>
+    <hyperlink ref="G16" r:id="rId13" display="https://www.mouser.pl/ProductDetail/onsemi-Fairchild/FOD817B3SD?qs=32VJUWvZ7XaPAttVzV2Zlg%3D%3D"/>
+    <hyperlink ref="G2" r:id="rId14" display="https://www.mouser.pl/ProductDetail/Samsung-Electro-Mechanics/CL10A106MP8NNND?qs=sGAEpiMZZMvsSlwiRhF8qtsGU%2FCnaNeQOykQYB9KHGQ6qGDXYAVN1w%3D%3D"/>
+    <hyperlink ref="G5" r:id="rId15" display="https://www.mouser.pl/ProductDetail/onsemi-Fairchild/LL4148?qs=sGAEpiMZZMtbRapU8LlZD9kBCaIQZVuxfJdpmPGhl1k%3D"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
